--- a/Logs/Sprint Log.xlsx
+++ b/Logs/Sprint Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CCCU Computer Science\2019-20 (S2) Software Engineering (MCOMD2SWE)\Assignment 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E69476-4D88-4B80-B4D6-AC5C1C7017D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02B1C65-B050-4597-B164-AEC4951A5C0C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{F0D1336B-B5F4-478B-B08D-855F913F4C9D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0D1336B-B5F4-478B-B08D-855F913F4C9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
   <si>
     <t>Issue 1</t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t>Tomas Porakis</t>
+  </si>
+  <si>
+    <t>Implement Timetable UI</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Create Framework UI</t>
   </si>
 </sst>
 </file>
@@ -134,10 +143,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -454,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81680F1-7DB1-4575-AE06-F3221AF87DD8}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,6 +500,9 @@
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
@@ -496,11 +517,14 @@
       <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>43866</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -513,16 +537,19 @@
       <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>43866</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -530,10 +557,12 @@
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -541,165 +570,217 @@
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>43867</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>43867</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Logs/Sprint Log.xlsx
+++ b/Logs/Sprint Log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\genti\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02B1C65-B050-4597-B164-AEC4951A5C0C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F951C227-71C4-48AF-B927-E0D054F6D62C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0D1336B-B5F4-478B-B08D-855F913F4C9D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
   <si>
     <t>Issue 1</t>
   </si>
@@ -100,13 +100,25 @@
   </si>
   <si>
     <t>Create Framework UI</t>
+  </si>
+  <si>
+    <t>Add Login UI</t>
+  </si>
+  <si>
+    <t>Implement Login Functionality</t>
+  </si>
+  <si>
+    <t>Encrypt User Passwords</t>
+  </si>
+  <si>
+    <t>Tovar Astrada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,16 +134,90 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -139,28 +225,152 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="7" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="4" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -472,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81680F1-7DB1-4575-AE06-F3221AF87DD8}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,303 +694,360 @@
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="C2" s="18">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18">
+        <v>1</v>
+      </c>
+      <c r="E2" s="19">
         <v>43866</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="16">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="C3" s="18">
+        <v>1</v>
+      </c>
+      <c r="D3" s="18">
+        <v>1</v>
+      </c>
+      <c r="E3" s="19">
         <v>43866</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="C4" s="18">
+        <v>1</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
         <v>43867</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
         <v>43867</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E10" s="2"/>
+      <c r="A10" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="23">
+        <v>1</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="25"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="23">
+        <v>1</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="23">
+        <v>3</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="1" t="s">
+      <c r="E14" s="4"/>
+      <c r="F14" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="1" t="s">
+      <c r="E20" s="4"/>
+      <c r="F20" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="2"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Logs/Sprint Log.xlsx
+++ b/Logs/Sprint Log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\genti\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Uni\Year 2 - Computer Science\Software Engineering\Assignment 2 - TimeTable\Interactive-Timetable-Map-master\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F951C227-71C4-48AF-B927-E0D054F6D62C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F5F1BA-A508-4481-AFED-EA715C6F4928}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0D1336B-B5F4-478B-B08D-855F913F4C9D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
   <si>
     <t>Issue 1</t>
   </si>
@@ -100,25 +100,13 @@
   </si>
   <si>
     <t>Create Framework UI</t>
-  </si>
-  <si>
-    <t>Add Login UI</t>
-  </si>
-  <si>
-    <t>Implement Login Functionality</t>
-  </si>
-  <si>
-    <t>Encrypt User Passwords</t>
-  </si>
-  <si>
-    <t>Tovar Astrada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,90 +122,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -225,152 +139,28 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="7" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="4" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -682,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81680F1-7DB1-4575-AE06-F3221AF87DD8}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,360 +484,305 @@
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="18">
-        <v>1</v>
-      </c>
-      <c r="D2" s="18">
-        <v>1</v>
-      </c>
-      <c r="E2" s="19">
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
         <v>43866</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="18">
-        <v>1</v>
-      </c>
-      <c r="D3" s="18">
-        <v>1</v>
-      </c>
-      <c r="E3" s="19">
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
         <v>43866</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="18">
-        <v>1</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="18"/>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
         <v>43867</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="12">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
         <v>43867</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="6"/>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="10">
-        <v>1</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>43869</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="23">
-        <v>1</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="25"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="23">
-        <v>1</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="26"/>
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="23">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="26"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="14" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="13"/>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Logs/Sprint Log.xlsx
+++ b/Logs/Sprint Log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Uni\Year 2 - Computer Science\Software Engineering\Assignment 2 - TimeTable\Interactive-Timetable-Map-master\Logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\genti\Desktop\New folder\Interactive-Timetable-Map-master\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F5F1BA-A508-4481-AFED-EA715C6F4928}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE47BC50-C20D-413F-8127-8B5D9FB5E344}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0D1336B-B5F4-478B-B08D-855F913F4C9D}"/>
+    <workbookView xWindow="2835" yWindow="195" windowWidth="21600" windowHeight="11385" xr2:uid="{F0D1336B-B5F4-478B-B08D-855F913F4C9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
   <si>
     <t>Issue 1</t>
   </si>
@@ -100,13 +100,25 @@
   </si>
   <si>
     <t>Create Framework UI</t>
+  </si>
+  <si>
+    <t>Tovar Astrada</t>
+  </si>
+  <si>
+    <t>Encrypt User Passwords</t>
+  </si>
+  <si>
+    <t>Implement Login Functionality</t>
+  </si>
+  <si>
+    <t>Add Login UI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,16 +134,73 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.749992370372631"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -139,28 +208,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="4" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -472,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81680F1-7DB1-4575-AE06-F3221AF87DD8}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,301 +623,352 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8">
         <v>43866</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
         <v>43866</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12">
         <v>43867</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12">
         <v>43867</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="16">
+        <v>43869</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15">
         <v>43869</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E10" s="2"/>
+      <c r="A10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="1" t="s">
+      <c r="E14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B17" s="19"/>
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B18" s="19"/>
+      <c r="C18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="1" t="s">
+      <c r="E20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="2"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Logs/Sprint Log.xlsx
+++ b/Logs/Sprint Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\genti\Desktop\New folder\Interactive-Timetable-Map-master\Logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cd549\OneDrive - Canterbury Christ Church University\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE47BC50-C20D-413F-8127-8B5D9FB5E344}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{BE47BC50-C20D-413F-8127-8B5D9FB5E344}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{AC4D2ED4-ADE0-42A7-8D57-5B465B8D24C9}"/>
   <bookViews>
     <workbookView xWindow="2835" yWindow="195" windowWidth="21600" windowHeight="11385" xr2:uid="{F0D1336B-B5F4-478B-B08D-855F913F4C9D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
   <si>
     <t>Issue 1</t>
   </si>
@@ -610,7 +610,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +659,7 @@
         <v>43866</v>
       </c>
       <c r="F2" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -739,8 +739,8 @@
       <c r="C7" s="11">
         <v>1</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>5</v>
+      <c r="D7" s="11">
+        <v>1</v>
       </c>
       <c r="E7" s="16">
         <v>43869</v>
@@ -757,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" s="15">
         <v>43869</v>

--- a/Logs/Sprint Log.xlsx
+++ b/Logs/Sprint Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cd549\OneDrive - Canterbury Christ Church University\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{BE47BC50-C20D-413F-8127-8B5D9FB5E344}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{AC4D2ED4-ADE0-42A7-8D57-5B465B8D24C9}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{BE47BC50-C20D-413F-8127-8B5D9FB5E344}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{A1EE0EEA-C454-4F1A-A77E-BD97B1689ED4}"/>
   <bookViews>
     <workbookView xWindow="2835" yWindow="195" windowWidth="21600" windowHeight="11385" xr2:uid="{F0D1336B-B5F4-478B-B08D-855F913F4C9D}"/>
   </bookViews>
@@ -246,7 +246,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -289,6 +289,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -610,7 +613,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +662,7 @@
         <v>43866</v>
       </c>
       <c r="F2" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -754,7 +757,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="14">
         <v>3</v>
@@ -771,7 +774,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>17</v>
@@ -788,8 +791,12 @@
       <c r="C10" s="5">
         <v>3</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="D10" s="5">
+        <v>3</v>
+      </c>
+      <c r="E10" s="20">
+        <v>43879</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -801,8 +808,12 @@
       <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="20">
+        <v>43879</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -814,8 +825,12 @@
       <c r="C12" s="5">
         <v>1</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="20">
+        <v>43879</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">

--- a/Logs/Sprint Log.xlsx
+++ b/Logs/Sprint Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cd549\OneDrive - Canterbury Christ Church University\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{BE47BC50-C20D-413F-8127-8B5D9FB5E344}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{A1EE0EEA-C454-4F1A-A77E-BD97B1689ED4}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{BE47BC50-C20D-413F-8127-8B5D9FB5E344}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{F42941D5-3513-48C0-A400-FD1992D0CC4E}"/>
   <bookViews>
     <workbookView xWindow="2835" yWindow="195" windowWidth="21600" windowHeight="11385" xr2:uid="{F0D1336B-B5F4-478B-B08D-855F913F4C9D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
   <si>
     <t>Issue 1</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Link Module/Timetable Database To Program</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Assigned To:</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>Add Login UI</t>
+  </si>
+  <si>
+    <t>Sprint Burndown</t>
   </si>
 </sst>
 </file>
@@ -313,6 +313,1810 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Burndown</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$F$2,Sheet1!$F$15,Sheet1!$F$21)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E5A-4939-AAB5-21952BFEFAD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="450661816"/>
+        <c:axId val="450660832"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="450661816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="450660832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="450660832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="450661816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sprint Burndown</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$17:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BCB2-497C-BC8C-A5ABEB53B833}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="547256848"/>
+        <c:axId val="547251928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="547256848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547251928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="547251928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547256848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C25D944-25A5-4083-8470-C9DB01540002}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7735E608-A0B7-486F-9622-2C0887B08A8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -610,10 +2414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81680F1-7DB1-4575-AE06-F3221AF87DD8}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,6 +2427,7 @@
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -630,7 +2435,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>4</v>
@@ -639,7 +2444,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>10</v>
@@ -650,7 +2455,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -662,7 +2467,7 @@
         <v>43866</v>
       </c>
       <c r="F2" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -670,7 +2475,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
@@ -684,10 +2489,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="7">
         <v>1</v>
@@ -703,7 +2508,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="11">
         <v>1</v>
@@ -720,7 +2525,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="11">
         <v>1</v>
@@ -734,10 +2539,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="11">
         <v>1</v>
@@ -754,7 +2559,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="14">
         <v>3</v>
@@ -771,73 +2576,67 @@
         <v>16</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="14">
         <v>3</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="5">
         <v>3</v>
       </c>
-      <c r="D10" s="5">
-        <v>3</v>
-      </c>
-      <c r="E10" s="20">
-        <v>43879</v>
-      </c>
+      <c r="D10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="20"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="20">
-        <v>43879</v>
-      </c>
+      <c r="D11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
       </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="20">
-        <v>43879</v>
-      </c>
+      <c r="D12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="20"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
@@ -846,7 +2645,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -864,8 +2663,8 @@
         <v>5</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
+      <c r="F15" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -881,7 +2680,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>2</v>
       </c>
@@ -893,8 +2692,26 @@
         <v>5</v>
       </c>
       <c r="E17" s="3"/>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17">
+        <v>17</v>
+      </c>
+      <c r="J17">
+        <v>15</v>
+      </c>
+      <c r="K17">
+        <v>13</v>
+      </c>
+      <c r="L17">
+        <v>9</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>3</v>
       </c>
@@ -907,15 +2724,15 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>4</v>
@@ -924,13 +2741,13 @@
         <v>9</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>0</v>
       </c>
@@ -942,11 +2759,11 @@
         <v>5</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
+      <c r="F21" s="3">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>1</v>
       </c>
@@ -959,7 +2776,7 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>2</v>
       </c>
@@ -972,7 +2789,7 @@
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>3</v>
       </c>
@@ -988,5 +2805,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Logs/Sprint Log.xlsx
+++ b/Logs/Sprint Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cd549\OneDrive - Canterbury Christ Church University\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{BE47BC50-C20D-413F-8127-8B5D9FB5E344}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{F42941D5-3513-48C0-A400-FD1992D0CC4E}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{FFC819F9-BD06-4A7B-9437-24ED6EA00801}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{DE77962E-826B-4D72-B808-73DDF07B9617}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="195" windowWidth="21600" windowHeight="11385" xr2:uid="{F0D1336B-B5F4-478B-B08D-855F913F4C9D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0D1336B-B5F4-478B-B08D-855F913F4C9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
   <si>
     <t>Issue 1</t>
   </si>
@@ -112,13 +112,31 @@
   </si>
   <si>
     <t>Sprint Burndown</t>
+  </si>
+  <si>
+    <t>Merge RegForm With Login Form</t>
+  </si>
+  <si>
+    <t>Update Login Code To Use Same Naming Scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fix Bug Preventing MainForm From Loading</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Entering New Password For Username Overwrites Old Password</t>
+  </si>
+  <si>
+    <t>Make Login Draw From User Database.XML File</t>
+  </si>
+  <si>
+    <t>Test Database - Class Linkages</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +185,13 @@
       <b/>
       <sz val="11"/>
       <color theme="2" tint="-0.749992370372631"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -246,7 +271,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -292,6 +317,11 @@
     <xf numFmtId="14" fontId="6" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -405,7 +435,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$F$2,Sheet1!$F$15,Sheet1!$F$21)</c:f>
+              <c:f>(Sheet1!$F$2,Sheet1!$F$15,Sheet1!$F$29)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -413,7 +443,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -647,7 +677,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$17</c:f>
+              <c:f>Sheet1!$H$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -728,7 +758,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$17:$M$17</c:f>
+              <c:f>Sheet1!$I$12:$M$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2044,15 +2074,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2081,15 +2111,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2414,15 +2444,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81680F1-7DB1-4575-AE06-F3221AF87DD8}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
@@ -2430,7 +2460,7 @@
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
@@ -2450,7 +2480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -2470,7 +2500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -2487,7 +2517,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
@@ -2503,7 +2533,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
@@ -2520,7 +2550,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
@@ -2537,7 +2567,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>23</v>
       </c>
@@ -2554,7 +2584,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -2571,7 +2601,7 @@
         <v>43869</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>16</v>
       </c>
@@ -2586,7 +2616,7 @@
       </c>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
@@ -2601,7 +2631,7 @@
       </c>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -2616,7 +2646,7 @@
       </c>
       <c r="E11" s="20"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
@@ -2630,8 +2660,26 @@
         <v>5</v>
       </c>
       <c r="E12" s="20"/>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12">
+        <v>17</v>
+      </c>
+      <c r="J12">
+        <v>15</v>
+      </c>
+      <c r="K12">
+        <v>13</v>
+      </c>
+      <c r="L12">
+        <v>9</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -2651,134 +2699,148 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="3"/>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="22">
+        <v>43881</v>
+      </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="22">
+        <v>43881</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="3"/>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="22">
+        <v>43880</v>
+      </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="22">
+        <v>43880</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="22">
+        <v>43879</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="22">
+        <v>43879</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3">
         <v>2</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="H17" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17">
-        <v>17</v>
-      </c>
-      <c r="J17">
-        <v>15</v>
-      </c>
-      <c r="K17">
-        <v>13</v>
-      </c>
-      <c r="L17">
-        <v>9</v>
-      </c>
-      <c r="M17">
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="22">
+        <v>43886</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="22">
+        <v>43886</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>2</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="3" t="s">
@@ -2789,7 +2851,7 @@
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>3</v>
       </c>
@@ -2801,6 +2863,81 @@
         <v>5</v>
       </c>
       <c r="E24" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Logs/Sprint Log.xlsx
+++ b/Logs/Sprint Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cd549\OneDrive - Canterbury Christ Church University\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\genti\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{FFC819F9-BD06-4A7B-9437-24ED6EA00801}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{DE77962E-826B-4D72-B808-73DDF07B9617}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4506FC4-D780-4299-9CAA-DCAC8282A102}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0D1336B-B5F4-478B-B08D-855F913F4C9D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="38">
   <si>
     <t>Issue 1</t>
   </si>
@@ -130,13 +130,22 @@
   </si>
   <si>
     <t>Test Database - Class Linkages</t>
+  </si>
+  <si>
+    <t>Impliment Timetable UI</t>
+  </si>
+  <si>
+    <t>Design UI to Allow Admin to Edit Database</t>
+  </si>
+  <si>
+    <t>Refine UI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +201,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.14999847407452621"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -271,7 +288,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -317,11 +334,33 @@
     <xf numFmtId="14" fontId="6" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -435,7 +474,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$F$2,Sheet1!$F$15,Sheet1!$F$29)</c:f>
+              <c:f>(Sheet1!$F$2,Sheet1!$F$15,Sheet1!$F$35)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2444,10 +2483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81680F1-7DB1-4575-AE06-F3221AF87DD8}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2680,19 +2719,19 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -2700,19 +2739,19 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="28">
         <v>3</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="28">
         <v>2</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="29">
         <v>43881</v>
       </c>
       <c r="F15" s="3">
@@ -2720,224 +2759,309 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="28">
         <v>3</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="28">
         <v>2</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="29">
         <v>43881</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="28">
         <v>1</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="28">
         <v>1</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="29">
         <v>43880</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="28">
         <v>1</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="28">
         <v>1</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="29">
         <v>43880</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="28">
         <v>1</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="28">
         <v>1</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="29">
         <v>43879</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="28">
         <v>1</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="28">
         <v>1</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="29">
         <v>43879</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="28">
         <v>2</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="28">
         <v>2</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="29">
         <v>43886</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="28">
         <v>2</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="28">
         <v>1</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="29">
         <v>43886</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="26">
+        <v>2</v>
+      </c>
+      <c r="D23" s="26">
+        <v>2</v>
+      </c>
+      <c r="E23" s="27">
+        <v>43887</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="26">
         <v>3</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="3" t="s">
+      <c r="D24" s="26">
+        <v>3</v>
+      </c>
+      <c r="E24" s="27">
+        <v>43887</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="26">
+        <v>2</v>
+      </c>
+      <c r="D25" s="26">
+        <v>2</v>
+      </c>
+      <c r="E25" s="27">
+        <v>43888</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D26" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="E26" s="31"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="31"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="33"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="33"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="3" t="s">
+      <c r="B38" s="19"/>
+      <c r="C38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3"/>
+      <c r="E38" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Logs/Sprint Log.xlsx
+++ b/Logs/Sprint Log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\genti\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krink\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4506FC4-D780-4299-9CAA-DCAC8282A102}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5D9ECB-D6A9-4129-B987-11CF0E70ECD8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0D1336B-B5F4-478B-B08D-855F913F4C9D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
   <si>
     <t>Issue 1</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>Refine UI</t>
+  </si>
+  <si>
+    <t>Add A Help Button</t>
+  </si>
+  <si>
+    <t>Add A Guide For Program Usage</t>
   </si>
 </sst>
 </file>
@@ -288,7 +294,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -359,6 +365,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2486,7 +2495,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2930,33 +2939,37 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B26" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="31"/>
+      <c r="C26" s="31">
+        <v>1</v>
+      </c>
+      <c r="D26" s="31">
+        <v>1</v>
+      </c>
+      <c r="E26" s="34">
+        <v>43892</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B27" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="31"/>
+      <c r="C27" s="31">
+        <v>1</v>
+      </c>
+      <c r="D27" s="31">
+        <v>1</v>
+      </c>
+      <c r="E27" s="34">
+        <v>43892</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">

--- a/Logs/Sprint Log.xlsx
+++ b/Logs/Sprint Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krink\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cccu-my.sharepoint.com/personal/ta237_canterbury_ac_uk/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5D9ECB-D6A9-4129-B987-11CF0E70ECD8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E0F3C39-0CAF-4903-A01F-8A4194F1EA70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0D1336B-B5F4-478B-B08D-855F913F4C9D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="40">
   <si>
     <t>Issue 1</t>
   </si>
@@ -488,7 +488,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>11</c:v>
@@ -2495,7 +2495,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2545,7 +2545,7 @@
         <v>43866</v>
       </c>
       <c r="F2" s="3">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2674,10 +2674,12 @@
       <c r="C10" s="5">
         <v>3</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="20"/>
+      <c r="D10" s="5">
+        <v>3</v>
+      </c>
+      <c r="E10" s="20">
+        <v>43872</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -2687,12 +2689,14 @@
         <v>24</v>
       </c>
       <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="20"/>
+        <v>3</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3</v>
+      </c>
+      <c r="E11" s="20">
+        <v>43872</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -2702,12 +2706,14 @@
         <v>24</v>
       </c>
       <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="20"/>
+        <v>3</v>
+      </c>
+      <c r="D12" s="5">
+        <v>3</v>
+      </c>
+      <c r="E12" s="20">
+        <v>43872</v>
+      </c>
       <c r="H12" t="s">
         <v>28</v>
       </c>
@@ -3081,4 +3087,207 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004540CEB70FB4CA4A8C89FBF49808A4B7" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f3ab766ea1325e570580b29fa95f1c9b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9168126b-3e7a-4567-88ce-9d860b5d6d2c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2050030edb5b31156eb30b1b5942e2b1" ns3:_="">
+    <xsd:import namespace="9168126b-3e7a-4567-88ce-9d860b5d6d2c"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9168126b-3e7a-4567-88ce-9d860b5d6d2c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DC7D468-AE10-42DD-9507-FE8657FE9DAD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9168126b-3e7a-4567-88ce-9d860b5d6d2c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C331B8D-5924-4D68-825C-ACD68F517804}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC1FF394-7CE5-4193-AFC0-C12EADF3CABF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="9168126b-3e7a-4567-88ce-9d860b5d6d2c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Logs/Sprint Log.xlsx
+++ b/Logs/Sprint Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krink\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cd549\OneDrive - Canterbury Christ Church University\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5D9ECB-D6A9-4129-B987-11CF0E70ECD8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{DD5D9ECB-D6A9-4129-B987-11CF0E70ECD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{7DB6C489-C49D-462C-B4C2-9BB9094BB44E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0D1336B-B5F4-478B-B08D-855F913F4C9D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="40">
   <si>
     <t>Issue 1</t>
   </si>
@@ -491,7 +491,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1006,6 +1006,335 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sprint Burndown</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$29:$O$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-67CD-4C62-80FC-863D8E40093B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="457827176"/>
+        <c:axId val="457827504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="457827176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457827504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="457827504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457827176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1086,6 +1415,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2118,20 +2487,488 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2187,6 +3024,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12253018-63E4-46ED-980A-AABCAD463C2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2492,10 +3365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81680F1-7DB1-4575-AE06-F3221AF87DD8}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2764,7 +3637,7 @@
         <v>43881</v>
       </c>
       <c r="F15" s="3">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -2784,7 +3657,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>29</v>
       </c>
@@ -2801,7 +3674,7 @@
         <v>43880</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>30</v>
       </c>
@@ -2818,7 +3691,7 @@
         <v>43880</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>31</v>
       </c>
@@ -2835,7 +3708,7 @@
         <v>43879</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>32</v>
       </c>
@@ -2852,7 +3725,7 @@
         <v>43879</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>33</v>
       </c>
@@ -2869,7 +3742,7 @@
         <v>43886</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>34</v>
       </c>
@@ -2886,7 +3759,7 @@
         <v>43886</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>35</v>
       </c>
@@ -2903,7 +3776,7 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>36</v>
       </c>
@@ -2920,7 +3793,7 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>37</v>
       </c>
@@ -2937,7 +3810,7 @@
         <v>43888</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
         <v>38</v>
       </c>
@@ -2954,7 +3827,7 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
         <v>39</v>
       </c>
@@ -2971,7 +3844,7 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>0</v>
       </c>
@@ -2986,7 +3859,7 @@
       </c>
       <c r="E28" s="33"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
         <v>1</v>
       </c>
@@ -3000,6 +3873,30 @@
         <v>5</v>
       </c>
       <c r="E29" s="33"/>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29">
+        <v>20</v>
+      </c>
+      <c r="J29">
+        <v>18</v>
+      </c>
+      <c r="K29">
+        <v>16</v>
+      </c>
+      <c r="L29">
+        <v>11</v>
+      </c>
+      <c r="M29">
+        <v>8</v>
+      </c>
+      <c r="N29">
+        <v>4</v>
+      </c>
+      <c r="O29">
+        <v>2</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">

--- a/Logs/Sprint Log.xlsx
+++ b/Logs/Sprint Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cd549\OneDrive - Canterbury Christ Church University\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Software Engineering\Interactive-Timetable-Map\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{DD5D9ECB-D6A9-4129-B987-11CF0E70ECD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{7DB6C489-C49D-462C-B4C2-9BB9094BB44E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3ADDA43-3F1A-4D5C-B390-AB8C40A488F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0D1336B-B5F4-478B-B08D-855F913F4C9D}"/>
   </bookViews>
@@ -20,12 +20,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
   <si>
     <t>Issue 1</t>
   </si>
@@ -33,12 +39,6 @@
     <t>Issue 2</t>
   </si>
   <si>
-    <t>Issue 3</t>
-  </si>
-  <si>
-    <t>Issue 4</t>
-  </si>
-  <si>
     <t>Estimation Points</t>
   </si>
   <si>
@@ -145,13 +145,25 @@
   </si>
   <si>
     <t>Add A Guide For Program Usage</t>
+  </si>
+  <si>
+    <t>Test Login Feature</t>
+  </si>
+  <si>
+    <t>Update Help Box</t>
+  </si>
+  <si>
+    <t>Create Tool Tips for UI</t>
+  </si>
+  <si>
+    <t>Test Admin Database Editing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +227,13 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -294,7 +313,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -336,7 +355,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -368,6 +386,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -488,7 +510,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>20</c:v>
@@ -3367,8 +3389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81680F1-7DB1-4575-AE06-F3221AF87DD8}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3383,30 +3405,30 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -3418,15 +3440,16 @@
         <v>43866</v>
       </c>
       <c r="F2" s="3">
-        <v>8</v>
+        <f>SUM(D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
@@ -3440,26 +3463,26 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="7">
         <v>1</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="11">
         <v>1</v>
@@ -3473,10 +3496,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="11">
         <v>1</v>
@@ -3490,10 +3513,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="11">
         <v>1</v>
@@ -3507,10 +3530,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="14">
         <v>3</v>
@@ -3524,65 +3547,65 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="14">
         <v>3</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="5">
         <v>3</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="20"/>
+      <c r="D10" s="5">
+        <v>3</v>
+      </c>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="20"/>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="20"/>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="19"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I12">
         <v>17</v>
@@ -3601,280 +3624,281 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>22</v>
+      <c r="E14" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="28">
+      <c r="A15" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="27">
         <v>3</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="27">
         <v>2</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="28">
         <v>43881</v>
       </c>
       <c r="F15" s="3">
+        <f>SUM(D15:D29)</f>
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="28">
+      <c r="C16" s="27">
         <v>3</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="27">
         <v>2</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="28">
         <v>43881</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="28">
+      <c r="A17" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="27">
         <v>1</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="27">
         <v>1</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="28">
         <v>43880</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="28">
+      <c r="A18" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="27">
         <v>1</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="27">
         <v>1</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="28">
         <v>43880</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="28">
+      <c r="A19" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="27">
         <v>1</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="27">
         <v>1</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="28">
         <v>43879</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="28">
+      <c r="A20" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="27">
         <v>1</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="27">
         <v>1</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="28">
         <v>43879</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="28">
+      <c r="A21" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="27">
         <v>2</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="27">
         <v>2</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="28">
         <v>43886</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="28">
+      <c r="A22" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="27">
         <v>2</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="27">
         <v>1</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="28">
         <v>43886</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="26">
+      <c r="A23" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="25">
         <v>2</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="25">
         <v>2</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="26">
         <v>43887</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="26">
+      <c r="A24" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="25">
         <v>3</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="25">
         <v>3</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="26">
         <v>43887</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="26">
+      <c r="A25" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="25">
         <v>2</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="25">
         <v>2</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="26">
         <v>43888</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="31">
+      <c r="A26" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="30">
         <v>1</v>
       </c>
-      <c r="D26" s="31">
+      <c r="D26" s="30">
         <v>1</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="33">
         <v>43892</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="31">
+      <c r="A27" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="30">
         <v>1</v>
       </c>
-      <c r="D27" s="31">
+      <c r="D27" s="30">
         <v>1</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="33">
         <v>43892</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="33"/>
+        <v>22</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="32"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="31" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="33"/>
+        <v>22</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="32"/>
       <c r="H29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I29">
         <v>20</v>
@@ -3900,78 +3924,87 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3"/>
+      <c r="A35" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="35"/>
       <c r="F35" s="3">
+        <f>SUM(D35,D36,D37,D38)</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="35">
         <v>1</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="3"/>
+      <c r="D36" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="35"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="35">
         <v>2</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="3"/>
+      <c r="D37" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="35"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="35">
+        <v>1</v>
+      </c>
+      <c r="D38" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="3"/>
+      <c r="E38" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Logs/Sprint Log.xlsx
+++ b/Logs/Sprint Log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Software Engineering\Interactive-Timetable-Map\Logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\University\Y2\S2\Software Engineering\Assignment 1\Code\Interactive-Timetable-Map\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3ADDA43-3F1A-4D5C-B390-AB8C40A488F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A235ECA-4133-46DE-80E2-CC982AA0DCFD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0D1336B-B5F4-478B-B08D-855F913F4C9D}"/>
   </bookViews>
@@ -20,12 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -39,6 +33,9 @@
     <t>Issue 2</t>
   </si>
   <si>
+    <t>Issue 4</t>
+  </si>
+  <si>
     <t>Estimation Points</t>
   </si>
   <si>
@@ -147,16 +144,13 @@
     <t>Add A Guide For Program Usage</t>
   </si>
   <si>
-    <t>Test Login Feature</t>
-  </si>
-  <si>
-    <t>Update Help Box</t>
-  </si>
-  <si>
-    <t>Create Tool Tips for UI</t>
-  </si>
-  <si>
-    <t>Test Admin Database Editing</t>
+    <t xml:space="preserve">Implement Timetable Functionality </t>
+  </si>
+  <si>
+    <t>Edit User XML/Database to Allow Admin Identification</t>
+  </si>
+  <si>
+    <t>Delete Register Function From Login Page</t>
   </si>
 </sst>
 </file>
@@ -313,7 +307,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -355,6 +349,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -388,8 +383,8 @@
     <xf numFmtId="14" fontId="7" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -510,13 +505,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3389,8 +3384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81680F1-7DB1-4575-AE06-F3221AF87DD8}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3405,30 +3400,30 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -3440,16 +3435,15 @@
         <v>43866</v>
       </c>
       <c r="F2" s="3">
-        <f>SUM(D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12)</f>
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
@@ -3463,26 +3457,26 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="7">
         <v>1</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="11">
         <v>1</v>
@@ -3496,10 +3490,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="11">
         <v>1</v>
@@ -3513,10 +3507,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="11">
         <v>1</v>
@@ -3530,10 +3524,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="14">
         <v>3</v>
@@ -3547,65 +3541,65 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="14">
         <v>3</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="C10" s="5">
         <v>3</v>
       </c>
-      <c r="D10" s="5">
-        <v>3</v>
-      </c>
-      <c r="E10" s="19"/>
+      <c r="D10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="20"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="19"/>
+      <c r="D11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
       </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="19"/>
+      <c r="D12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="20"/>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I12">
         <v>17</v>
@@ -3624,281 +3618,280 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>20</v>
+      <c r="A14" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="27">
+      <c r="A15" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="28">
         <v>3</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="28">
         <v>2</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="29">
         <v>43881</v>
       </c>
       <c r="F15" s="3">
-        <f>SUM(D15:D29)</f>
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="27">
+      <c r="A16" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="28">
         <v>3</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="28">
         <v>2</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="29">
         <v>43881</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="27">
+      <c r="A17" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="28">
         <v>1</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="28">
         <v>1</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="29">
         <v>43880</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="27">
+      <c r="A18" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="28">
         <v>1</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="28">
         <v>1</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="29">
         <v>43880</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="27">
+      <c r="A19" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="28">
         <v>1</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="28">
         <v>1</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="29">
         <v>43879</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="27">
+      <c r="A20" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="28">
         <v>1</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="28">
         <v>1</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="29">
         <v>43879</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="27">
+      <c r="A21" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="28">
         <v>2</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="28">
         <v>2</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="29">
         <v>43886</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="27">
+      <c r="A22" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="28">
         <v>2</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="28">
         <v>1</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="29">
         <v>43886</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="25">
+      <c r="A23" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="26">
         <v>2</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="26">
         <v>2</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="27">
         <v>43887</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="25">
+      <c r="A24" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="26">
         <v>3</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="26">
         <v>3</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="27">
         <v>43887</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="25">
+      <c r="A25" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="26">
         <v>2</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="26">
         <v>2</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="27">
         <v>43888</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="30">
+      <c r="A26" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="31">
         <v>1</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="31">
         <v>1</v>
       </c>
-      <c r="E26" s="33">
+      <c r="E26" s="34">
         <v>43892</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="30">
+      <c r="A27" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="31">
         <v>1</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="31">
         <v>1</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="34">
         <v>43892</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="32"/>
+        <v>23</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="33"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="32"/>
+        <v>23</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="33"/>
       <c r="H29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I29">
         <v>20</v>
@@ -3924,87 +3917,90 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="35">
-        <v>1</v>
-      </c>
-      <c r="D35" s="35" t="s">
+      <c r="A35" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="3">
         <v>3</v>
       </c>
-      <c r="E35" s="35"/>
+      <c r="D35" s="3">
+        <v>2</v>
+      </c>
+      <c r="E35" s="36">
+        <v>43893</v>
+      </c>
       <c r="F35" s="3">
-        <f>SUM(D35,D36,D37,D38)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="35">
-        <v>1</v>
-      </c>
-      <c r="D36" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="35"/>
+      <c r="A36" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2</v>
+      </c>
+      <c r="E36" s="36">
+        <v>43893</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="35">
-        <v>2</v>
-      </c>
-      <c r="D37" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="35"/>
+      <c r="A37" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="36">
+        <v>43893</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="35">
-        <v>1</v>
-      </c>
-      <c r="D38" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="35"/>
+      <c r="A38" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="19"/>
+      <c r="C38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Logs/Sprint Log.xlsx
+++ b/Logs/Sprint Log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\University\Y2\S2\Software Engineering\Assignment 1\Code\Interactive-Timetable-Map\Logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\genti\Desktop\Interactive-Timetable-Map\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A235ECA-4133-46DE-80E2-CC982AA0DCFD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35750D0C-39D4-4E4F-B8C4-97F0BA1483AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0D1336B-B5F4-478B-B08D-855F913F4C9D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
   <si>
     <t>Issue 1</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Issue 2</t>
   </si>
   <si>
-    <t>Issue 4</t>
-  </si>
-  <si>
     <t>Estimation Points</t>
   </si>
   <si>
@@ -151,22 +148,26 @@
   </si>
   <si>
     <t>Delete Register Function From Login Page</t>
+  </si>
+  <si>
+    <t>Fix &amp; Refine Admin UI</t>
+  </si>
+  <si>
+    <t>Fix Timetable Rows Bug</t>
+  </si>
+  <si>
+    <t>Test Timetable Feature</t>
+  </si>
+  <si>
+    <t>Test Admin User Editing Feature</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -219,21 +220,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.14999847407452621"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,8 +255,13 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -299,37 +299,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -337,59 +377,32 @@
     <xf numFmtId="14" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,7 +513,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$F$2,Sheet1!$F$15,Sheet1!$F$35)</c:f>
+              <c:f>(Sheet1!$F$2,Sheet1!$F$15,Sheet1!$F$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -511,7 +524,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3384,8 +3397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81680F1-7DB1-4575-AE06-F3221AF87DD8}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3399,207 +3412,207 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="A1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>43866</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>1</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>43866</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="A4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="7"/>
+      <c r="D4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="A5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="10">
         <v>1</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>1</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>43867</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="A6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="10">
         <v>1</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>1</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>43867</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="A7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="10">
         <v>1</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>1</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>43869</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="14">
+      <c r="A8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="13">
         <v>3</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>3</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>43869</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="14">
+      <c r="A9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="13">
         <v>3</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="14"/>
+      <c r="D9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="5">
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4">
         <v>3</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="20"/>
+      <c r="D10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="18"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4">
         <v>1</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="20"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="D12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="H12" t="s">
         <v>26</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="H12" t="s">
-        <v>27</v>
       </c>
       <c r="I12">
         <v>17</v>
@@ -3617,281 +3630,288 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="21" t="s">
+    <row r="13" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>8</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="28">
+      <c r="A15" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="25">
         <v>3</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="25">
         <v>2</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="26">
         <v>43881</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="28">
+      <c r="A16" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="25">
         <v>3</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="25">
         <v>2</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="26">
         <v>43881</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="28">
+      <c r="A17" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="25">
         <v>1</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="25">
         <v>1</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="26">
         <v>43880</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="28">
+      <c r="A18" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="25">
         <v>1</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="25">
         <v>1</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="26">
         <v>43880</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="28">
+      <c r="A19" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="25">
         <v>1</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="25">
         <v>1</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="26">
         <v>43879</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="28">
+      <c r="A20" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="25">
         <v>1</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="25">
         <v>1</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="26">
         <v>43879</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="28">
+      <c r="A21" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="25">
         <v>2</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="25">
         <v>2</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="26">
         <v>43886</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="28">
+      <c r="A22" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="25">
         <v>2</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="25">
         <v>1</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="26">
         <v>43886</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="26">
+      <c r="A23" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="23">
         <v>2</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="23">
         <v>2</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="24">
         <v>43887</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="26">
+      <c r="A24" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="23">
         <v>3</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="23">
         <v>3</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="24">
         <v>43887</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="26">
+      <c r="A25" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="23">
         <v>2</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="23">
         <v>2</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="24">
         <v>43888</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="31">
+      <c r="A26" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="28">
         <v>1</v>
       </c>
-      <c r="D26" s="31">
+      <c r="D26" s="28">
         <v>1</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="31">
         <v>43892</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="31">
+      <c r="A27" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="28">
         <v>1</v>
       </c>
-      <c r="D27" s="31">
+      <c r="D27" s="28">
         <v>1</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="31">
         <v>43892</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="33"/>
+      <c r="B28" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="30"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
+    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="33"/>
+      <c r="B29" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="30"/>
       <c r="H29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I29">
         <v>20</v>
@@ -3915,92 +3935,152 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="30" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="E31" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C32" s="25">
         <v>3</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>9</v>
+      <c r="D32" s="25">
+        <v>2</v>
+      </c>
+      <c r="E32" s="26">
+        <v>43893</v>
+      </c>
+      <c r="F32" s="2">
+        <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="35" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B33" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="25">
+        <v>2</v>
+      </c>
+      <c r="D33" s="25">
+        <v>2</v>
+      </c>
+      <c r="E33" s="26">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="25">
+        <v>1</v>
+      </c>
+      <c r="D34" s="25">
+        <v>1</v>
+      </c>
+      <c r="E34" s="26">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="23">
+        <v>2</v>
+      </c>
+      <c r="D35" s="23">
+        <v>2</v>
+      </c>
+      <c r="E35" s="24">
+        <v>43894</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="23">
+        <v>2</v>
+      </c>
+      <c r="D36" s="23">
+        <v>1</v>
+      </c>
+      <c r="E36" s="24">
+        <v>43896</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="23">
+        <v>2</v>
+      </c>
+      <c r="D37" s="23">
+        <v>2</v>
+      </c>
+      <c r="E37" s="24">
+        <v>43896</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="23">
+        <v>2</v>
+      </c>
+      <c r="D38" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="3">
-        <v>2</v>
-      </c>
-      <c r="E35" s="36">
-        <v>43893</v>
-      </c>
-      <c r="F35" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="3">
-        <v>2</v>
-      </c>
-      <c r="D36" s="3">
-        <v>2</v>
-      </c>
-      <c r="E36" s="36">
-        <v>43893</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="3">
-        <v>1</v>
-      </c>
-      <c r="D37" s="3">
-        <v>1</v>
-      </c>
-      <c r="E37" s="36">
-        <v>43893</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="3"/>
+      <c r="E38" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Logs/Sprint Log.xlsx
+++ b/Logs/Sprint Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\genti\Desktop\Interactive-Timetable-Map\Logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\Y2\S2\Software Engineering\Assignment 1\Code\Interactive-Timetable-Map\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35750D0C-39D4-4E4F-B8C4-97F0BA1483AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569070A4-6299-4919-8AC3-38CD26A0F9EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0D1336B-B5F4-478B-B08D-855F913F4C9D}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
-  <si>
-    <t>Issue 1</t>
-  </si>
-  <si>
-    <t>Issue 2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="44">
   <si>
     <t>Estimation Points</t>
   </si>
@@ -160,13 +154,16 @@
   </si>
   <si>
     <t>Test Admin User Editing Feature</t>
+  </si>
+  <si>
+    <t>Add Functionality To Logout Button</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +220,21 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -315,13 +327,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -387,23 +400,22 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="5"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="4" builtinId="21"/>
@@ -511,9 +523,67 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$F$2,Sheet1!$F$15,Sheet1!$F$32)</c:f>
+              <c:f>(Sheet1!$F$2,Sheet1!$F$15,Sheet1!$F$30)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -524,7 +594,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -537,8 +607,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2989,15 +3060,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3395,10 +3466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81680F1-7DB1-4575-AE06-F3221AF87DD8}">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3413,30 +3484,30 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -3453,10 +3524,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -3470,26 +3541,26 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
@@ -3503,10 +3574,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
@@ -3520,10 +3591,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="10">
         <v>1</v>
@@ -3537,10 +3608,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="13">
         <v>3</v>
@@ -3554,65 +3625,65 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="13">
         <v>3</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="4">
         <v>3</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" s="18"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" s="18"/>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I12">
         <v>17</v>
@@ -3631,38 +3702,38 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>20</v>
+      <c r="E14" s="30" t="s">
+        <v>18</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" s="25">
         <v>3</v>
@@ -3679,10 +3750,10 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>16</v>
       </c>
       <c r="C16" s="25">
         <v>3</v>
@@ -3696,10 +3767,10 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" s="25">
         <v>1</v>
@@ -3713,10 +3784,10 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C18" s="25">
         <v>1</v>
@@ -3730,10 +3801,10 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="25">
         <v>1</v>
@@ -3747,10 +3818,10 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C20" s="25">
         <v>1</v>
@@ -3764,10 +3835,10 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C21" s="25">
         <v>2</v>
@@ -3781,10 +3852,10 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C22" s="25">
         <v>2</v>
@@ -3798,10 +3869,10 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C23" s="23">
         <v>2</v>
@@ -3815,10 +3886,10 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C24" s="23">
         <v>3</v>
@@ -3832,10 +3903,10 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C25" s="23">
         <v>2</v>
@@ -3849,10 +3920,10 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C26" s="28">
         <v>1</v>
@@ -3860,16 +3931,16 @@
       <c r="D26" s="28">
         <v>1</v>
       </c>
-      <c r="E26" s="31">
+      <c r="E26" s="29">
         <v>43892</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C27" s="28">
         <v>1</v>
@@ -3877,41 +3948,38 @@
       <c r="D27" s="28">
         <v>1</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E27" s="29">
         <v>43892</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
+    <row r="28" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="30"/>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="30"/>
+      <c r="D29" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>6</v>
+      </c>
       <c r="H29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I29">
         <v>20</v>
@@ -3935,152 +4003,145 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="25">
+        <v>3</v>
+      </c>
+      <c r="D30" s="25">
+        <v>2</v>
+      </c>
+      <c r="E30" s="26">
+        <v>43893</v>
+      </c>
+      <c r="F30" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="19" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="25">
         <v>2</v>
       </c>
-      <c r="D31" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>8</v>
+      <c r="D31" s="25">
+        <v>2</v>
+      </c>
+      <c r="E31" s="26">
+        <v>43893</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="34" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C32" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" s="26">
         <v>43893</v>
       </c>
-      <c r="F32" s="2">
-        <v>10</v>
-      </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
-        <v>39</v>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="33" t="s">
+        <v>43</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C33" s="25">
         <v>2</v>
       </c>
       <c r="D33" s="25">
+        <v>1</v>
+      </c>
+      <c r="E33" s="26">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="23">
         <v>2</v>
       </c>
-      <c r="E33" s="26">
-        <v>43893</v>
+      <c r="D34" s="23">
+        <v>2</v>
+      </c>
+      <c r="E34" s="24">
+        <v>43894</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="25">
-        <v>1</v>
-      </c>
-      <c r="D34" s="25">
-        <v>1</v>
-      </c>
-      <c r="E34" s="26">
-        <v>43893</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="B35" s="22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C35" s="23">
         <v>2</v>
       </c>
       <c r="D35" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" s="24">
-        <v>43894</v>
+        <v>43896</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C36" s="23">
         <v>2</v>
       </c>
       <c r="D36" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="24">
         <v>43896</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C37" s="23">
         <v>2</v>
       </c>
-      <c r="D37" s="23">
-        <v>2</v>
-      </c>
-      <c r="E37" s="24">
-        <v>43896</v>
-      </c>
+      <c r="D37" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="23"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="23">
-        <v>2</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="23"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H40" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Logs/Sprint Log.xlsx
+++ b/Logs/Sprint Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\Y2\S2\Software Engineering\Assignment 1\Code\Interactive-Timetable-Map\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569070A4-6299-4919-8AC3-38CD26A0F9EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC445CD-F1C1-4631-B986-B7FE3030CF7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0D1336B-B5F4-478B-B08D-855F913F4C9D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="82">
   <si>
     <t>Estimation Points</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Tomas Porakis</t>
   </si>
   <si>
-    <t>Implement Timetable UI</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -108,12 +105,6 @@
     <t>Update Login Code To Use Same Naming Scheme</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fix Bug Preventing MainForm From Loading</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Entering New Password For Username Overwrites Old Password</t>
-  </si>
-  <si>
     <t>Make Login Draw From User Database.XML File</t>
   </si>
   <si>
@@ -157,13 +148,136 @@
   </si>
   <si>
     <t>Add Functionality To Logout Button</t>
+  </si>
+  <si>
+    <t>Aceptance Criteria</t>
+  </si>
+  <si>
+    <t>Must contain user name</t>
+  </si>
+  <si>
+    <t>Must contain module name</t>
+  </si>
+  <si>
+    <t>Must contain testable data</t>
+  </si>
+  <si>
+    <t>UI must be capable of testing implemented functions</t>
+  </si>
+  <si>
+    <t>Program must be able to read from database</t>
+  </si>
+  <si>
+    <t>Hash must not be stored in the same database as the encyrpted password</t>
+  </si>
+  <si>
+    <t>User can only log in when username and password are both correct</t>
+  </si>
+  <si>
+    <t>User must be able to enter their Username and Password</t>
+  </si>
+  <si>
+    <t>Must show current week timetable</t>
+  </si>
+  <si>
+    <t>Must only be accesable by Admin Login</t>
+  </si>
+  <si>
+    <t>Must import information from the database correctly</t>
+  </si>
+  <si>
+    <t>Reduce code duplication</t>
+  </si>
+  <si>
+    <t>Unify naming schemes for ease of programming</t>
+  </si>
+  <si>
+    <t>Entering New Password For Username Overwrites Old Password</t>
+  </si>
+  <si>
+    <t>Fix Bug Preventing MainForm From Loading</t>
+  </si>
+  <si>
+    <t>Login must correctly read from User Databse</t>
+  </si>
+  <si>
+    <t>UI must be easy for users to navigate</t>
+  </si>
+  <si>
+    <t>Users should be able to easily find FAQ</t>
+  </si>
+  <si>
+    <t>Users should be able to see the intended method of use for program</t>
+  </si>
+  <si>
+    <t>Critical security vulnerabilies must be removed</t>
+  </si>
+  <si>
+    <t>Critical bug introduced by LoginForm must be fixed</t>
+  </si>
+  <si>
+    <t>Program must be able to identify admins</t>
+  </si>
+  <si>
+    <t>Users timetable should be correctly displayed when the user logs in</t>
+  </si>
+  <si>
+    <t>Redundant features must be removed without causing bugs</t>
+  </si>
+  <si>
+    <t>Logout function must return UI to neutral state with no bugs</t>
+  </si>
+  <si>
+    <t>Admin UI must have all necessary components for functionalty</t>
+  </si>
+  <si>
+    <t>Timetable must work without major bugs</t>
+  </si>
+  <si>
+    <t>Implement Timetable Functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Login Feature </t>
+  </si>
+  <si>
+    <t>Update Help Box</t>
+  </si>
+  <si>
+    <t>Create Tooltips For UI</t>
+  </si>
+  <si>
+    <t>Test Admin Database Editing</t>
+  </si>
+  <si>
+    <t>Implement Admin Functionality</t>
+  </si>
+  <si>
+    <t>Login and Logout featrues must be tested</t>
+  </si>
+  <si>
+    <t>The correct timetable must be displayed</t>
+  </si>
+  <si>
+    <t>User must be edited correctly, without error</t>
+  </si>
+  <si>
+    <t>Help box should have information for all features</t>
+  </si>
+  <si>
+    <t>Most UI elements should have a tooltip</t>
+  </si>
+  <si>
+    <t>Admin Database Editing must work without critical issue</t>
+  </si>
+  <si>
+    <t>Admin must be able to edit extisting user/timetable database and add new users</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,22 +310,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="2" tint="-0.749992370372631"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1" tint="0.14999847407452621"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -273,7 +371,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -326,6 +424,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -333,83 +483,60 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="5"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -583,12 +710,12 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$F$2,Sheet1!$F$15,Sheet1!$F$30)</c:f>
+              <c:f>(Sheet1!$G$2,Sheet1!$G$14,Sheet1!$G$31)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>20</c:v>
@@ -786,6 +913,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint 1 Burndown</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -826,7 +978,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$12</c:f>
+              <c:f>Sheet1!$I$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -907,24 +1059,24 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$12:$M$12</c:f>
+              <c:f>Sheet1!$J$12:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1122,6 +1274,28 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint 2 Burndown</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1159,7 +1333,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$29</c:f>
+              <c:f>Sheet1!$I$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1236,10 +1410,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$29:$O$29</c:f>
+              <c:f>Sheet1!$J$29:$Q$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -1250,16 +1424,19 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3061,15 +3238,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3096,13 +3273,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>557212</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -3132,13 +3309,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
@@ -3466,682 +3643,939 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81680F1-7DB1-4575-AE06-F3221AF87DD8}">
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="15">
+        <v>1</v>
+      </c>
+      <c r="E2" s="15">
+        <v>1</v>
+      </c>
+      <c r="F2" s="16">
+        <v>43866</v>
+      </c>
+      <c r="G2" s="13">
+        <f>SUM(E2:E11)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="15">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15">
+        <v>1</v>
+      </c>
+      <c r="F3" s="16">
+        <v>43866</v>
+      </c>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="19">
+        <v>1</v>
+      </c>
+      <c r="E4" s="19">
+        <v>1</v>
+      </c>
+      <c r="F4" s="20">
+        <v>43867</v>
+      </c>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="19">
+        <v>1</v>
+      </c>
+      <c r="E5" s="19">
+        <v>1</v>
+      </c>
+      <c r="F5" s="20">
+        <v>43867</v>
+      </c>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="19">
+        <v>1</v>
+      </c>
+      <c r="E6" s="19">
+        <v>1</v>
+      </c>
+      <c r="F6" s="21">
+        <v>43869</v>
+      </c>
+      <c r="G6" s="17"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="23">
+        <v>3</v>
+      </c>
+      <c r="E7" s="23">
+        <v>3</v>
+      </c>
+      <c r="F7" s="24">
+        <v>43869</v>
+      </c>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="23">
+        <v>3</v>
+      </c>
+      <c r="E8" s="23">
+        <v>3</v>
+      </c>
+      <c r="F8" s="24">
+        <v>43869</v>
+      </c>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="26">
+        <v>3</v>
+      </c>
+      <c r="E9" s="26">
+        <v>1</v>
+      </c>
+      <c r="F9" s="27">
+        <v>43872</v>
+      </c>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="26">
+        <v>1</v>
+      </c>
+      <c r="E10" s="26">
+        <v>1</v>
+      </c>
+      <c r="F10" s="27">
+        <v>43872</v>
+      </c>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="26">
+        <v>1</v>
+      </c>
+      <c r="E11" s="26">
+        <v>1</v>
+      </c>
+      <c r="F11" s="27">
+        <v>43872</v>
+      </c>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="17"/>
+      <c r="I12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12">
         <v>14</v>
       </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7">
-        <v>43866</v>
-      </c>
-      <c r="F2" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7">
-        <v>43866</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11">
-        <v>43867</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="K12">
+        <v>12</v>
+      </c>
+      <c r="L12">
         <v>10</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-      <c r="D6" s="10">
-        <v>1</v>
-      </c>
-      <c r="E6" s="11">
-        <v>43867</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="10">
-        <v>1</v>
-      </c>
-      <c r="D7" s="10">
-        <v>1</v>
-      </c>
-      <c r="E7" s="15">
-        <v>43869</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="13">
-        <v>3</v>
-      </c>
-      <c r="D8" s="13">
-        <v>3</v>
-      </c>
-      <c r="E8" s="14">
-        <v>43869</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="13">
-        <v>3</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4">
-        <v>3</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="18"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12">
-        <v>17</v>
-      </c>
-      <c r="J12">
-        <v>15</v>
-      </c>
-      <c r="K12">
-        <v>13</v>
-      </c>
-      <c r="L12">
-        <v>9</v>
       </c>
       <c r="M12">
         <v>3</v>
       </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
+    <row r="13" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="15">
         <v>3</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="E14" s="15">
+        <v>2</v>
+      </c>
+      <c r="F14" s="16">
+        <v>43881</v>
+      </c>
+      <c r="G14" s="13">
+        <f>SUM(E14:E28)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="15">
+        <v>3</v>
+      </c>
+      <c r="E15" s="15">
+        <v>2</v>
+      </c>
+      <c r="F15" s="16">
+        <v>43881</v>
+      </c>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="15">
+        <v>1</v>
+      </c>
+      <c r="E16" s="15">
+        <v>1</v>
+      </c>
+      <c r="F16" s="16">
+        <v>43880</v>
+      </c>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="15">
+        <v>1</v>
+      </c>
+      <c r="E17" s="15">
+        <v>1</v>
+      </c>
+      <c r="F17" s="16">
+        <v>43880</v>
+      </c>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="15">
+        <v>1</v>
+      </c>
+      <c r="E18" s="15">
+        <v>1</v>
+      </c>
+      <c r="F18" s="16">
+        <v>43879</v>
+      </c>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="15">
+        <v>1</v>
+      </c>
+      <c r="E19" s="15">
+        <v>1</v>
+      </c>
+      <c r="F19" s="16">
+        <v>43879</v>
+      </c>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="15">
+        <v>2</v>
+      </c>
+      <c r="E20" s="15">
+        <v>2</v>
+      </c>
+      <c r="F20" s="16">
+        <v>43886</v>
+      </c>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="15">
+        <v>2</v>
+      </c>
+      <c r="E21" s="15">
+        <v>1</v>
+      </c>
+      <c r="F21" s="16">
+        <v>43886</v>
+      </c>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="19">
+        <v>2</v>
+      </c>
+      <c r="E22" s="19">
+        <v>2</v>
+      </c>
+      <c r="F22" s="20">
+        <v>43887</v>
+      </c>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="19">
+        <v>3</v>
+      </c>
+      <c r="E23" s="19">
+        <v>3</v>
+      </c>
+      <c r="F23" s="20">
+        <v>43887</v>
+      </c>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="19">
+        <v>2</v>
+      </c>
+      <c r="E24" s="19">
+        <v>2</v>
+      </c>
+      <c r="F24" s="20">
+        <v>43888</v>
+      </c>
+      <c r="G24" s="17"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="23">
+        <v>1</v>
+      </c>
+      <c r="E25" s="23">
+        <v>1</v>
+      </c>
+      <c r="F25" s="24">
+        <v>43892</v>
+      </c>
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="23">
+        <v>1</v>
+      </c>
+      <c r="E26" s="23">
+        <v>1</v>
+      </c>
+      <c r="F26" s="24">
+        <v>43892</v>
+      </c>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="26">
+        <v>2</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="27"/>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="26">
+        <v>1</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="27"/>
+    </row>
+    <row r="29" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="28"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="17"/>
+      <c r="I29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29">
+        <v>20</v>
+      </c>
+      <c r="K29">
+        <v>18</v>
+      </c>
+      <c r="L29">
+        <v>16</v>
+      </c>
+      <c r="M29">
+        <v>12</v>
+      </c>
+      <c r="N29">
+        <v>9</v>
+      </c>
+      <c r="O29">
+        <v>4</v>
+      </c>
+      <c r="P29">
+        <v>2</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="D30" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="E30" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="19" t="s">
+      <c r="F30" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="20" t="s">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="25">
+      <c r="D31" s="15">
         <v>3</v>
       </c>
-      <c r="D15" s="25">
+      <c r="E31" s="15">
         <v>2</v>
       </c>
-      <c r="E15" s="26">
-        <v>43881</v>
-      </c>
-      <c r="F15" s="2">
-        <v>20</v>
+      <c r="F31" s="16">
+        <v>43893</v>
+      </c>
+      <c r="G31" s="13">
+        <f>SUM(E31:E43)</f>
+        <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="20" t="s">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="25">
-        <v>3</v>
-      </c>
-      <c r="D16" s="25">
+      <c r="D32" s="15">
         <v>2</v>
       </c>
-      <c r="E16" s="26">
-        <v>43881</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="25">
-        <v>1</v>
-      </c>
-      <c r="D17" s="25">
-        <v>1</v>
-      </c>
-      <c r="E17" s="26">
-        <v>43880</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="25">
-        <v>1</v>
-      </c>
-      <c r="D18" s="25">
-        <v>1</v>
-      </c>
-      <c r="E18" s="26">
-        <v>43880</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="25">
-        <v>1</v>
-      </c>
-      <c r="D19" s="25">
-        <v>1</v>
-      </c>
-      <c r="E19" s="26">
-        <v>43879</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="25">
-        <v>1</v>
-      </c>
-      <c r="D20" s="25">
-        <v>1</v>
-      </c>
-      <c r="E20" s="26">
-        <v>43879</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="25">
+      <c r="E32" s="15">
         <v>2</v>
       </c>
-      <c r="D21" s="25">
-        <v>2</v>
-      </c>
-      <c r="E21" s="26">
-        <v>43886</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="25">
-        <v>2</v>
-      </c>
-      <c r="D22" s="25">
-        <v>1</v>
-      </c>
-      <c r="E22" s="26">
-        <v>43886</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="23">
-        <v>2</v>
-      </c>
-      <c r="D23" s="23">
-        <v>2</v>
-      </c>
-      <c r="E23" s="24">
-        <v>43887</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="23">
-        <v>3</v>
-      </c>
-      <c r="D24" s="23">
-        <v>3</v>
-      </c>
-      <c r="E24" s="24">
-        <v>43887</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="23">
-        <v>2</v>
-      </c>
-      <c r="D25" s="23">
-        <v>2</v>
-      </c>
-      <c r="E25" s="24">
-        <v>43888</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="28">
-        <v>1</v>
-      </c>
-      <c r="D26" s="28">
-        <v>1</v>
-      </c>
-      <c r="E26" s="29">
-        <v>43892</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="28">
-        <v>1</v>
-      </c>
-      <c r="D27" s="28">
-        <v>1</v>
-      </c>
-      <c r="E27" s="29">
-        <v>43892</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29">
-        <v>20</v>
-      </c>
-      <c r="J29">
-        <v>18</v>
-      </c>
-      <c r="K29">
-        <v>16</v>
-      </c>
-      <c r="L29">
-        <v>11</v>
-      </c>
-      <c r="M29">
-        <v>8</v>
-      </c>
-      <c r="N29">
-        <v>4</v>
-      </c>
-      <c r="O29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="25">
-        <v>3</v>
-      </c>
-      <c r="D30" s="25">
-        <v>2</v>
-      </c>
-      <c r="E30" s="26">
+      <c r="F32" s="16">
         <v>43893</v>
       </c>
-      <c r="F30" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="25">
-        <v>2</v>
-      </c>
-      <c r="D31" s="25">
-        <v>2</v>
-      </c>
-      <c r="E31" s="26">
-        <v>43893</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="25">
-        <v>1</v>
-      </c>
-      <c r="D32" s="25">
-        <v>1</v>
-      </c>
-      <c r="E32" s="26">
-        <v>43893</v>
-      </c>
+      <c r="G32" s="17"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="20" t="s">
+      <c r="A33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="25">
-        <v>2</v>
-      </c>
-      <c r="D33" s="25">
+      <c r="D33" s="15">
         <v>1</v>
       </c>
-      <c r="E33" s="26">
-        <v>43900</v>
-      </c>
+      <c r="E33" s="15">
+        <v>1</v>
+      </c>
+      <c r="F33" s="16">
+        <v>43893</v>
+      </c>
+      <c r="G33" s="17"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="23">
+      <c r="A34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="15">
         <v>2</v>
       </c>
-      <c r="D34" s="23">
+      <c r="E34" s="15">
         <v>2</v>
       </c>
-      <c r="E34" s="24">
-        <v>43894</v>
-      </c>
+      <c r="F34" s="16">
+        <v>43900</v>
+      </c>
+      <c r="G34" s="17"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="22" t="s">
+      <c r="A35" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="23">
+      <c r="D35" s="19">
         <v>2</v>
       </c>
-      <c r="D35" s="23">
-        <v>1</v>
-      </c>
-      <c r="E35" s="24">
-        <v>43896</v>
-      </c>
+      <c r="E35" s="19">
+        <v>2</v>
+      </c>
+      <c r="F35" s="20">
+        <v>43894</v>
+      </c>
+      <c r="G35" s="17"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="22" t="s">
+      <c r="A36" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="23">
+      <c r="D36" s="19">
         <v>2</v>
       </c>
-      <c r="D36" s="23">
-        <v>2</v>
-      </c>
-      <c r="E36" s="24">
+      <c r="E36" s="19">
+        <v>1</v>
+      </c>
+      <c r="F36" s="20">
         <v>43896</v>
       </c>
+      <c r="G36" s="17"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="22" t="s">
+      <c r="A37" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="23">
+      <c r="D37" s="19">
         <v>2</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="E37" s="19">
+        <v>2</v>
+      </c>
+      <c r="F37" s="20">
+        <v>43896</v>
+      </c>
+      <c r="G37" s="17"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="19">
+        <v>2</v>
+      </c>
+      <c r="E38" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E37" s="23"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="17"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="23">
+        <v>1</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="24"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H40" s="32"/>
+      <c r="A40" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="23">
+        <v>1</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="24"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="23">
+        <v>2</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" s="24"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="23">
+        <v>1</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" s="24"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="26">
+        <v>2</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Logs/Sprint Log.xlsx
+++ b/Logs/Sprint Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\Y2\S2\Software Engineering\Assignment 1\Code\Interactive-Timetable-Map\Logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\genti\Desktop\New folder\Interactive-Timetable-Map\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC445CD-F1C1-4631-B986-B7FE3030CF7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A264A9-EDAB-43A3-9419-D3C7ED8FD1D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0D1336B-B5F4-478B-B08D-855F913F4C9D}"/>
   </bookViews>
@@ -20,12 +20,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="84">
   <si>
     <t>Estimation Points</t>
   </si>
@@ -271,6 +277,12 @@
   </si>
   <si>
     <t>Admin must be able to edit extisting user/timetable database and add new users</t>
+  </si>
+  <si>
+    <t>Fix Incompatible Code In Admin Functionality - Technical</t>
+  </si>
+  <si>
+    <t>Admin must have all necessary functionalities required</t>
   </si>
 </sst>
 </file>
@@ -371,7 +383,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -476,6 +488,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -486,7 +518,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
@@ -537,6 +569,13 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -721,7 +760,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3643,10 +3682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81680F1-7DB1-4575-AE06-F3221AF87DD8}">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4337,8 +4376,8 @@
         <v>43893</v>
       </c>
       <c r="G31" s="13">
-        <f>SUM(E31:E43)</f>
-        <v>12</v>
+        <f>SUM(E31:E44)</f>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -4480,36 +4519,40 @@
       <c r="D38" s="19">
         <v>2</v>
       </c>
-      <c r="E38" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="F38" s="19"/>
+      <c r="E38" s="19">
+        <v>2</v>
+      </c>
+      <c r="F38" s="20">
+        <v>43903</v>
+      </c>
       <c r="G38" s="17"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="23">
-        <v>1</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" s="24"/>
+      <c r="A39" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="34">
+        <v>3</v>
+      </c>
+      <c r="E39" s="34">
+        <v>3</v>
+      </c>
+      <c r="F39" s="36">
+        <v>43903</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C40" s="22" t="s">
         <v>16</v>
@@ -4525,16 +4568,16 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C41" s="22" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" s="23" t="s">
         <v>1</v>
@@ -4543,16 +4586,16 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C42" s="22" t="s">
         <v>16</v>
       </c>
       <c r="D42" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" s="23" t="s">
         <v>1</v>
@@ -4560,22 +4603,40 @@
       <c r="F42" s="24"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="23">
+        <v>1</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="24"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B44" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C44" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="26">
+      <c r="D44" s="26">
         <v>2</v>
       </c>
-      <c r="E43" s="26" t="s">
+      <c r="E44" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F43" s="27"/>
+      <c r="F44" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Logs/Sprint Log.xlsx
+++ b/Logs/Sprint Log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\genti\Desktop\New folder\Interactive-Timetable-Map\Logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Documents\GitHub\Interactive-Timetable-Map\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A264A9-EDAB-43A3-9419-D3C7ED8FD1D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACECBD0-D961-4571-ADBB-2178674F4728}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0D1336B-B5F4-478B-B08D-855F913F4C9D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="88">
   <si>
     <t>Estimation Points</t>
   </si>
@@ -283,6 +283,18 @@
   </si>
   <si>
     <t>Admin must have all necessary functionalities required</t>
+  </si>
+  <si>
+    <t>Fix Bugs In Admin Functionality Forms</t>
+  </si>
+  <si>
+    <t>Admin Functionality must work completely without crashing</t>
+  </si>
+  <si>
+    <t>Link Google Maps to Timetable</t>
+  </si>
+  <si>
+    <t>Correct map must open when user clicks on room in Timetable</t>
   </si>
 </sst>
 </file>
@@ -518,7 +530,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
@@ -576,6 +588,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -760,7 +773,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3682,10 +3695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81680F1-7DB1-4575-AE06-F3221AF87DD8}">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4376,8 +4389,8 @@
         <v>43893</v>
       </c>
       <c r="G31" s="13">
-        <f>SUM(E31:E44)</f>
-        <v>17</v>
+        <f>SUM(E31:E46)</f>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -4444,53 +4457,53 @@
       <c r="G34" s="17"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="19">
+      <c r="A35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="15">
         <v>2</v>
       </c>
-      <c r="E35" s="19">
-        <v>2</v>
-      </c>
-      <c r="F35" s="20">
-        <v>43894</v>
+      <c r="E35" s="15">
+        <v>3</v>
+      </c>
+      <c r="F35" s="16">
+        <v>43904</v>
       </c>
       <c r="G35" s="17"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="19">
+      <c r="A36" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="15">
         <v>2</v>
       </c>
-      <c r="E36" s="19">
-        <v>1</v>
-      </c>
-      <c r="F36" s="20">
-        <v>43896</v>
+      <c r="E36" s="15">
+        <v>3</v>
+      </c>
+      <c r="F36" s="16">
+        <v>43904</v>
       </c>
       <c r="G36" s="17"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>15</v>
@@ -4502,16 +4515,16 @@
         <v>2</v>
       </c>
       <c r="F37" s="20">
-        <v>43896</v>
+        <v>43894</v>
       </c>
       <c r="G37" s="17"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>15</v>
@@ -4520,82 +4533,86 @@
         <v>2</v>
       </c>
       <c r="E38" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" s="20">
-        <v>43903</v>
+        <v>43896</v>
       </c>
       <c r="G38" s="17"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="33" t="s">
+      <c r="A39" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="34">
-        <v>3</v>
-      </c>
-      <c r="E39" s="34">
-        <v>3</v>
-      </c>
-      <c r="F39" s="36">
-        <v>43903</v>
+      <c r="D39" s="19">
+        <v>2</v>
+      </c>
+      <c r="E39" s="19">
+        <v>2</v>
+      </c>
+      <c r="F39" s="20">
+        <v>43896</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="23">
-        <v>1</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F40" s="24"/>
+      <c r="A40" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="19">
+        <v>2</v>
+      </c>
+      <c r="E40" s="19">
+        <v>2</v>
+      </c>
+      <c r="F40" s="20">
+        <v>43903</v>
+      </c>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="23">
-        <v>1</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F41" s="24"/>
+      <c r="A41" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="34">
+        <v>3</v>
+      </c>
+      <c r="E41" s="34">
+        <v>3</v>
+      </c>
+      <c r="F41" s="36">
+        <v>43903</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C42" s="22" t="s">
         <v>16</v>
       </c>
       <c r="D42" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" s="23" t="s">
         <v>1</v>
@@ -4604,10 +4621,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C43" s="22" t="s">
         <v>16</v>
@@ -4621,22 +4638,58 @@
       <c r="F43" s="24"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="23">
+        <v>2</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="24"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="23">
+        <v>1</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="24"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B46" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C46" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="26">
+      <c r="D46" s="26">
         <v>2</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="E46" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F44" s="27"/>
+      <c r="F46" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Logs/Sprint Log.xlsx
+++ b/Logs/Sprint Log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Documents\GitHub\Interactive-Timetable-Map\Logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Uni\Year 2 - Computer Science\Software Engineering\Interactive-Timetable-Map\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACECBD0-D961-4571-ADBB-2178674F4728}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69489E6-6FC7-4F4E-B2C9-FF3BE75195EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0D1336B-B5F4-478B-B08D-855F913F4C9D}"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{F0D1336B-B5F4-478B-B08D-855F913F4C9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="88">
   <si>
     <t>Estimation Points</t>
   </si>
@@ -773,7 +773,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3697,8 +3697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81680F1-7DB1-4575-AE06-F3221AF87DD8}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="G31" s="13">
         <f>SUM(E31:E46)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -4614,10 +4614,12 @@
       <c r="D42" s="23">
         <v>1</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="E42" s="23">
         <v>1</v>
       </c>
-      <c r="F42" s="24"/>
+      <c r="F42" s="24">
+        <v>43906</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
@@ -4632,10 +4634,12 @@
       <c r="D43" s="23">
         <v>1</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="E43" s="23">
         <v>1</v>
       </c>
-      <c r="F43" s="24"/>
+      <c r="F43" s="24">
+        <v>43906</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
@@ -4650,10 +4654,12 @@
       <c r="D44" s="23">
         <v>2</v>
       </c>
-      <c r="E44" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44" s="24"/>
+      <c r="E44" s="23">
+        <v>2</v>
+      </c>
+      <c r="F44" s="24">
+        <v>43906</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
@@ -4668,10 +4674,12 @@
       <c r="D45" s="23">
         <v>1</v>
       </c>
-      <c r="E45" s="23" t="s">
+      <c r="E45" s="23">
         <v>1</v>
       </c>
-      <c r="F45" s="24"/>
+      <c r="F45" s="24">
+        <v>43906</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
